--- a/Pokemon_Server/data/pkm_moves.xlsx
+++ b/Pokemon_Server/data/pkm_moves.xlsx
@@ -3484,9 +3484,6 @@
     <t>parabolic-charge</t>
   </si>
   <si>
-    <t>Forest's Curse</t>
-  </si>
-  <si>
     <t>forests-curse</t>
   </si>
   <si>
@@ -3586,9 +3583,6 @@
     <t>fairy-lock</t>
   </si>
   <si>
-    <t>King's Shield</t>
-  </si>
-  <si>
     <t>kings-shield</t>
   </si>
   <si>
@@ -3754,9 +3748,6 @@
     <t>thousand-waves</t>
   </si>
   <si>
-    <t>Land's Wrath</t>
-  </si>
-  <si>
     <t>lands-wrath</t>
   </si>
   <si>
@@ -4306,9 +4297,6 @@
     <t>zing-zap</t>
   </si>
   <si>
-    <t>Nature's Madness</t>
-  </si>
-  <si>
     <t>natures-madness</t>
   </si>
   <si>
@@ -4430,6 +4418,18 @@
   </si>
   <si>
     <t>shadow-sky</t>
+  </si>
+  <si>
+    <t>Forest''s Curse</t>
+  </si>
+  <si>
+    <t>King''s Shield</t>
+  </si>
+  <si>
+    <t>Land''s Wrath</t>
+  </si>
+  <si>
+    <t>Nature''s Madness</t>
   </si>
 </sst>
 </file>
@@ -29657,10 +29657,10 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C572" t="s">
         <v>1156</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1157</v>
       </c>
       <c r="D572">
         <v>6</v>
@@ -29692,10 +29692,10 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C573" t="s">
         <v>1158</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1159</v>
       </c>
       <c r="D573">
         <v>6</v>
@@ -29730,10 +29730,10 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C574" t="s">
         <v>1160</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1161</v>
       </c>
       <c r="D574">
         <v>6</v>
@@ -29771,10 +29771,10 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C575" t="s">
         <v>1162</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1163</v>
       </c>
       <c r="D575">
         <v>6</v>
@@ -29806,10 +29806,10 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C576" t="s">
         <v>1164</v>
-      </c>
-      <c r="C576" t="s">
-        <v>1165</v>
       </c>
       <c r="D576">
         <v>6</v>
@@ -29844,10 +29844,10 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C577" t="s">
         <v>1166</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1167</v>
       </c>
       <c r="D577">
         <v>6</v>
@@ -29876,10 +29876,10 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C578" t="s">
         <v>1168</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1169</v>
       </c>
       <c r="D578">
         <v>6</v>
@@ -29914,10 +29914,10 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C579" t="s">
         <v>1170</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1171</v>
       </c>
       <c r="D579">
         <v>6</v>
@@ -29946,10 +29946,10 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C580" t="s">
         <v>1172</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1173</v>
       </c>
       <c r="D580">
         <v>6</v>
@@ -29981,10 +29981,10 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C581" t="s">
         <v>1174</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1175</v>
       </c>
       <c r="D581">
         <v>6</v>
@@ -30013,10 +30013,10 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C582" t="s">
         <v>1176</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1177</v>
       </c>
       <c r="D582">
         <v>6</v>
@@ -30045,10 +30045,10 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C583" t="s">
         <v>1178</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1179</v>
       </c>
       <c r="D583">
         <v>6</v>
@@ -30077,10 +30077,10 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C584" t="s">
         <v>1180</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1181</v>
       </c>
       <c r="D584">
         <v>6</v>
@@ -30118,10 +30118,10 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C585" t="s">
         <v>1182</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1183</v>
       </c>
       <c r="D585">
         <v>6</v>
@@ -30156,10 +30156,10 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C586" t="s">
         <v>1184</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1185</v>
       </c>
       <c r="D586">
         <v>6</v>
@@ -30197,10 +30197,10 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C587" t="s">
         <v>1186</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1187</v>
       </c>
       <c r="D587">
         <v>6</v>
@@ -30235,10 +30235,10 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C588" t="s">
         <v>1188</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1189</v>
       </c>
       <c r="D588">
         <v>6</v>
@@ -30267,10 +30267,10 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>1190</v>
+        <v>1469</v>
       </c>
       <c r="C589" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D589">
         <v>6</v>
@@ -30299,10 +30299,10 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C590" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D590">
         <v>6</v>
@@ -30334,10 +30334,10 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C591" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D591">
         <v>6</v>
@@ -30369,10 +30369,10 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C592" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D592">
         <v>6</v>
@@ -30410,10 +30410,10 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C593" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D593">
         <v>6</v>
@@ -30451,10 +30451,10 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C594" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D594">
         <v>6</v>
@@ -30486,10 +30486,10 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="C595" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D595">
         <v>6</v>
@@ -30524,10 +30524,10 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C596" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D596">
         <v>6</v>
@@ -30565,10 +30565,10 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C597" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D597">
         <v>6</v>
@@ -30597,10 +30597,10 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C598" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D598">
         <v>6</v>
@@ -30629,10 +30629,10 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C599" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D599">
         <v>6</v>
@@ -30664,10 +30664,10 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C600" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D600">
         <v>6</v>
@@ -30702,10 +30702,10 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C601" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D601">
         <v>6</v>
@@ -30737,10 +30737,10 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C602" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D602">
         <v>6</v>
@@ -30769,10 +30769,10 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C603" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D603">
         <v>6</v>
@@ -30801,10 +30801,10 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C604" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D604">
         <v>6</v>
@@ -30833,10 +30833,10 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C605" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D605">
         <v>6</v>
@@ -30865,10 +30865,10 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C606" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D606">
         <v>6</v>
@@ -30903,10 +30903,10 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C607" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D607">
         <v>6</v>
@@ -30935,10 +30935,10 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C608" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D608">
         <v>6</v>
@@ -30967,10 +30967,10 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C609" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D609">
         <v>6</v>
@@ -31002,10 +31002,10 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C610" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D610">
         <v>6</v>
@@ -31043,10 +31043,10 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C611" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D611">
         <v>6</v>
@@ -31081,10 +31081,10 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C612" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D612">
         <v>6</v>
@@ -31122,10 +31122,10 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C613" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D613">
         <v>6</v>
@@ -31163,10 +31163,10 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C614" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D614">
         <v>6</v>
@@ -31201,10 +31201,10 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C615" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D615">
         <v>6</v>
@@ -31242,10 +31242,10 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C616" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D616">
         <v>6</v>
@@ -31280,10 +31280,10 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>1246</v>
+        <v>1470</v>
       </c>
       <c r="C617" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D617">
         <v>6</v>
@@ -31318,10 +31318,10 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C618" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="D618">
         <v>6</v>
@@ -31356,10 +31356,10 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C619" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D619">
         <v>6</v>
@@ -31394,10 +31394,10 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C620" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D620">
         <v>6</v>
@@ -31432,10 +31432,10 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C621" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D621">
         <v>6</v>
@@ -31473,10 +31473,10 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="C622" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D622">
         <v>6</v>
@@ -31511,10 +31511,10 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C623" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D623">
         <v>7</v>
@@ -31543,10 +31543,10 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C624" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D624">
         <v>7</v>
@@ -31575,10 +31575,10 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C625" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D625">
         <v>7</v>
@@ -31607,10 +31607,10 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C626" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D626">
         <v>7</v>
@@ -31639,10 +31639,10 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C627" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D627">
         <v>7</v>
@@ -31671,10 +31671,10 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C628" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D628">
         <v>7</v>
@@ -31703,10 +31703,10 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C629" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D629">
         <v>7</v>
@@ -31735,10 +31735,10 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C630" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D630">
         <v>7</v>
@@ -31767,10 +31767,10 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C631" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="D631">
         <v>7</v>
@@ -31799,10 +31799,10 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C632" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D632">
         <v>7</v>
@@ -31831,10 +31831,10 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C633" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D633">
         <v>7</v>
@@ -31863,10 +31863,10 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C634" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D634">
         <v>7</v>
@@ -31895,10 +31895,10 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C635" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D635">
         <v>7</v>
@@ -31927,10 +31927,10 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C636" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D636">
         <v>7</v>
@@ -31959,10 +31959,10 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C637" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D637">
         <v>7</v>
@@ -31991,10 +31991,10 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C638" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D638">
         <v>7</v>
@@ -32023,10 +32023,10 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C639" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D639">
         <v>7</v>
@@ -32055,10 +32055,10 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C640" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D640">
         <v>7</v>
@@ -32087,10 +32087,10 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C641" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D641">
         <v>7</v>
@@ -32119,10 +32119,10 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C642" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D642">
         <v>7</v>
@@ -32151,10 +32151,10 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C643" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D643">
         <v>7</v>
@@ -32183,10 +32183,10 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C644" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="D644">
         <v>7</v>
@@ -32215,10 +32215,10 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C645" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D645">
         <v>7</v>
@@ -32247,10 +32247,10 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C646" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D646">
         <v>7</v>
@@ -32279,10 +32279,10 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C647" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D647">
         <v>7</v>
@@ -32311,10 +32311,10 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C648" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D648">
         <v>7</v>
@@ -32343,10 +32343,10 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C649" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D649">
         <v>7</v>
@@ -32375,10 +32375,10 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C650" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D650">
         <v>7</v>
@@ -32407,10 +32407,10 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C651" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D651">
         <v>7</v>
@@ -32439,10 +32439,10 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C652" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D652">
         <v>7</v>
@@ -32471,10 +32471,10 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C653" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="D653">
         <v>7</v>
@@ -32503,10 +32503,10 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C654" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D654">
         <v>7</v>
@@ -32535,10 +32535,10 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C655" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D655">
         <v>7</v>
@@ -32567,10 +32567,10 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C656" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D656">
         <v>7</v>
@@ -32599,10 +32599,10 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C657" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D657">
         <v>7</v>
@@ -32631,10 +32631,10 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C658" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D658">
         <v>7</v>
@@ -32663,10 +32663,10 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C659" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D659">
         <v>7</v>
@@ -32698,10 +32698,10 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C660" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D660">
         <v>7</v>
@@ -32730,10 +32730,10 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C661" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D661">
         <v>7</v>
@@ -32768,10 +32768,10 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C662" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D662">
         <v>7</v>
@@ -32800,10 +32800,10 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C663" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D663">
         <v>7</v>
@@ -32838,10 +32838,10 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C664" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D664">
         <v>7</v>
@@ -32876,10 +32876,10 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C665" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D665">
         <v>7</v>
@@ -32914,10 +32914,10 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C666" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="D666">
         <v>7</v>
@@ -32955,10 +32955,10 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C667" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="D667">
         <v>7</v>
@@ -32987,10 +32987,10 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C668" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D668">
         <v>7</v>
@@ -33025,10 +33025,10 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C669" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D669">
         <v>7</v>
@@ -33063,10 +33063,10 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C670" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D670">
         <v>7</v>
@@ -33101,10 +33101,10 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C671" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D671">
         <v>7</v>
@@ -33139,10 +33139,10 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C672" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D672">
         <v>7</v>
@@ -33171,10 +33171,10 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C673" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D673">
         <v>7</v>
@@ -33209,10 +33209,10 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C674" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D674">
         <v>7</v>
@@ -33241,10 +33241,10 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C675" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D675">
         <v>7</v>
@@ -33273,10 +33273,10 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C676" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D676">
         <v>7</v>
@@ -33314,10 +33314,10 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C677" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D677">
         <v>7</v>
@@ -33352,10 +33352,10 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C678" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D678">
         <v>7</v>
@@ -33390,10 +33390,10 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C679" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D679">
         <v>7</v>
@@ -33422,10 +33422,10 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C680" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D680">
         <v>7</v>
@@ -33463,10 +33463,10 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C681" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D681">
         <v>7</v>
@@ -33504,10 +33504,10 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C682" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D682">
         <v>7</v>
@@ -33542,10 +33542,10 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C683" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="D683">
         <v>7</v>
@@ -33580,10 +33580,10 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C684" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D684">
         <v>7</v>
@@ -33612,10 +33612,10 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C685" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D685">
         <v>7</v>
@@ -33647,10 +33647,10 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C686" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D686">
         <v>7</v>
@@ -33679,10 +33679,10 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C687" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="D687">
         <v>7</v>
@@ -33717,10 +33717,10 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C688" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D688">
         <v>7</v>
@@ -33755,10 +33755,10 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C689" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D689">
         <v>7</v>
@@ -33796,10 +33796,10 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C690" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D690">
         <v>7</v>
@@ -33828,10 +33828,10 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C691" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D691">
         <v>7</v>
@@ -33866,10 +33866,10 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C692" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="D692">
         <v>7</v>
@@ -33907,10 +33907,10 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C693" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D693">
         <v>7</v>
@@ -33945,10 +33945,10 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C694" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D694">
         <v>7</v>
@@ -33983,10 +33983,10 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C695" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D695">
         <v>7</v>
@@ -34015,10 +34015,10 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C696" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D696">
         <v>7</v>
@@ -34050,10 +34050,10 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C697" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D697">
         <v>7</v>
@@ -34085,10 +34085,10 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C698" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D698">
         <v>7</v>
@@ -34120,10 +34120,10 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C699" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D699">
         <v>7</v>
@@ -34152,10 +34152,10 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C700" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D700">
         <v>7</v>
@@ -34187,10 +34187,10 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C701" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D701">
         <v>7</v>
@@ -34225,10 +34225,10 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C702" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D702">
         <v>7</v>
@@ -34260,10 +34260,10 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C703" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D703">
         <v>7</v>
@@ -34295,10 +34295,10 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C704" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D704">
         <v>7</v>
@@ -34330,10 +34330,10 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C705" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D705">
         <v>7</v>
@@ -34368,10 +34368,10 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C706" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D706">
         <v>7</v>
@@ -34409,10 +34409,10 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C707" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D707">
         <v>7</v>
@@ -34447,10 +34447,10 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C708" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D708">
         <v>7</v>
@@ -34485,10 +34485,10 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C709" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D709">
         <v>7</v>
@@ -34526,10 +34526,10 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C710" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D710">
         <v>7</v>
@@ -34564,10 +34564,10 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C711" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D711">
         <v>7</v>
@@ -34605,10 +34605,10 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C712" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D712">
         <v>7</v>
@@ -34643,10 +34643,10 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C713" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="D713">
         <v>7</v>
@@ -34681,10 +34681,10 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C714" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="D714">
         <v>7</v>
@@ -34719,10 +34719,10 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C715" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D715">
         <v>7</v>
@@ -34757,10 +34757,10 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C716" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D716">
         <v>7</v>
@@ -34792,10 +34792,10 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C717" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D717">
         <v>7</v>
@@ -34833,10 +34833,10 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
-        <v>1430</v>
+        <v>1471</v>
       </c>
       <c r="C718" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="D718">
         <v>7</v>
@@ -34868,10 +34868,10 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C719" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D719">
         <v>7</v>
@@ -34906,10 +34906,10 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C720" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D720">
         <v>7</v>
@@ -34941,10 +34941,10 @@
         <v>10001</v>
       </c>
       <c r="B721" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C721" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D721">
         <v>3</v>
@@ -34976,10 +34976,10 @@
         <v>10002</v>
       </c>
       <c r="B722" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C722" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D722">
         <v>3</v>
@@ -35011,10 +35011,10 @@
         <v>10003</v>
       </c>
       <c r="B723" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C723" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D723">
         <v>3</v>
@@ -35046,10 +35046,10 @@
         <v>10004</v>
       </c>
       <c r="B724" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C724" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D724">
         <v>3</v>
@@ -35084,10 +35084,10 @@
         <v>10005</v>
       </c>
       <c r="B725" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C725" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D725">
         <v>3</v>
@@ -35119,10 +35119,10 @@
         <v>10006</v>
       </c>
       <c r="B726" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="C726" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="D726">
         <v>3</v>
@@ -35157,10 +35157,10 @@
         <v>10007</v>
       </c>
       <c r="B727" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C727" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D727">
         <v>3</v>
@@ -35192,10 +35192,10 @@
         <v>10008</v>
       </c>
       <c r="B728" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C728" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D728">
         <v>3</v>
@@ -35230,10 +35230,10 @@
         <v>10009</v>
       </c>
       <c r="B729" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="C729" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D729">
         <v>3</v>
@@ -35265,10 +35265,10 @@
         <v>10010</v>
       </c>
       <c r="B730" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="C730" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D730">
         <v>3</v>
@@ -35300,10 +35300,10 @@
         <v>10011</v>
       </c>
       <c r="B731" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="C731" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D731">
         <v>3</v>
@@ -35335,10 +35335,10 @@
         <v>10012</v>
       </c>
       <c r="B732" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C732" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D732">
         <v>3</v>
@@ -35367,10 +35367,10 @@
         <v>10013</v>
       </c>
       <c r="B733" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C733" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D733">
         <v>3</v>
@@ -35399,10 +35399,10 @@
         <v>10014</v>
       </c>
       <c r="B734" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C734" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D734">
         <v>3</v>
@@ -35428,10 +35428,10 @@
         <v>10015</v>
       </c>
       <c r="B735" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C735" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D735">
         <v>3</v>
@@ -35460,10 +35460,10 @@
         <v>10016</v>
       </c>
       <c r="B736" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C736" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D736">
         <v>3</v>
@@ -35492,10 +35492,10 @@
         <v>10017</v>
       </c>
       <c r="B737" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="C737" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D737">
         <v>3</v>
@@ -35521,10 +35521,10 @@
         <v>10018</v>
       </c>
       <c r="B738" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C738" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D738">
         <v>3</v>
